--- a/data/georgia_census/imereti/zestafoni/age_dependency.xlsx
+++ b/data/georgia_census/imereti/zestafoni/age_dependency.xlsx
@@ -1007,13 +1007,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F5CF7E0-9B51-450A-8F7F-4A58717C47B4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3B9AC9F-7FFF-4D3D-8DA4-244D5E60593C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76CD5790-2510-41A2-AE97-DF22D9DEA9FF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4A817B0-4CDF-4606-B2D8-197AB0693CBF}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87FB6B46-FEBB-4918-A53E-2848E652A09C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA370835-9934-4B15-8CE3-EDBA275B4744}"/>
 </file>